--- a/PDDE/entrega 7/e8_planilha_tailine.xlsx
+++ b/PDDE/entrega 7/e8_planilha_tailine.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">NO_UF</t>
   </si>
@@ -32,289 +32,265 @@
     <t xml:space="preserve">Goiás</t>
   </si>
   <si>
-    <t xml:space="preserve">  6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50</t>
   </si>
   <si>
     <t xml:space="preserve">Mato Grosso</t>
   </si>
   <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com UEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem UEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menos de 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Pagos 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagos 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 94</t>
   </si>
   <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com UEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem UEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508</t>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">Menos de 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 ou mais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não Pagos 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagos 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve"> 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9</t>
   </si>
 </sst>
 </file>
@@ -696,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -819,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -833,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -847,10 +823,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -861,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -875,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -889,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -903,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -917,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -959,13 +935,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -973,13 +949,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -987,13 +963,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1001,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1029,13 +1005,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1043,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1057,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -1071,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1099,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -1113,13 +1089,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1127,13 +1103,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1141,13 +1117,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -1155,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1169,13 +1145,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1183,13 +1159,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1197,13 +1173,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1217,7 +1193,7 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +1232,10 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1270,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1281,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1295,13 +1271,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1323,13 +1299,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1337,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1351,13 +1327,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1365,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -1393,13 +1369,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -1407,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1424,10 +1400,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1435,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -1449,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1463,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -1477,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1491,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -1505,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1544,10 +1520,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -1555,10 +1531,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1566,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -1588,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1599,10 +1575,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1610,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1635,13 +1611,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -1649,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1663,13 +1639,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -1677,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1691,13 +1667,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1705,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1719,13 +1695,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PDDE/entrega 7/e8_planilha_tailine.xlsx
+++ b/PDDE/entrega 7/e8_planilha_tailine.xlsx
@@ -10,12 +10,13 @@
     <sheet name="indigenas" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="quilombos" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="tradicionais" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="UEx e N de alunos" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">UF</t>
   </si>
@@ -95,195 +96,198 @@
     <t xml:space="preserve">140</t>
   </si>
   <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">55</t>
   </si>
   <si>
@@ -293,9 +297,6 @@
     <t xml:space="preserve">69</t>
   </si>
   <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -303,6 +304,63 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de alunos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de escolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrito Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.720</t>
   </si>
 </sst>
 </file>
@@ -1127,19 +1185,19 @@
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -1225,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
@@ -1257,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -1282,6 +1340,258 @@
       </c>
       <c r="J4" t="s">
         <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/PDDE/entrega 7/e8_planilha_tailine.xlsx
+++ b/PDDE/entrega 7/e8_planilha_tailine.xlsx
@@ -10,13 +10,12 @@
     <sheet name="indigenas" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="quilombos" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="tradicionais" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="UEx e N de alunos" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">UF</t>
   </si>
@@ -33,12 +32,12 @@
     <t xml:space="preserve">Sem UEx</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;50</t>
+  </si>
+  <si>
     <t xml:space="preserve">50+</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pagos</t>
   </si>
   <si>
@@ -69,12 +68,12 @@
     <t xml:space="preserve"> 33</t>
   </si>
   <si>
+    <t xml:space="preserve"> 44</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 44</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50</t>
   </si>
   <si>
@@ -96,12 +95,12 @@
     <t xml:space="preserve">140</t>
   </si>
   <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
     <t xml:space="preserve">157</t>
   </si>
   <si>
@@ -141,12 +140,12 @@
     <t xml:space="preserve">226</t>
   </si>
   <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
     <t xml:space="preserve">263</t>
   </si>
   <si>
@@ -186,12 +185,12 @@
     <t xml:space="preserve">111</t>
   </si>
   <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
     <t xml:space="preserve">205</t>
   </si>
   <si>
@@ -225,12 +224,12 @@
     <t xml:space="preserve">173</t>
   </si>
   <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
     <t xml:space="preserve">95</t>
   </si>
   <si>
-    <t xml:space="preserve">178</t>
-  </si>
-  <si>
     <t xml:space="preserve">273</t>
   </si>
   <si>
@@ -249,12 +248,12 @@
     <t xml:space="preserve">41</t>
   </si>
   <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
     <t xml:space="preserve">72</t>
   </si>
   <si>
@@ -291,12 +290,12 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -304,63 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de alunos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de escolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrito Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.720</t>
   </si>
 </sst>
 </file>
@@ -811,10 +753,10 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -921,10 +863,10 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -985,10 +927,10 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -1127,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -1156,16 +1098,16 @@
         <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1197,7 +1139,7 @@
         <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
         <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
       </c>
       <c r="J2" t="s">
         <v>83</v>
@@ -1301,10 +1243,10 @@
         <v>93</v>
       </c>
       <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
         <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
       </c>
       <c r="J3" t="s">
         <v>93</v>
@@ -1333,265 +1275,13 @@
         <v>93</v>
       </c>
       <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
         <v>94</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
       </c>
       <c r="J4" t="s">
         <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
